--- a/9.DynamicPricing_ETN/datos_dinamicos.xlsx
+++ b/9.DynamicPricing_ETN/datos_dinamicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>NOMBRE_PASAJERO</t>
   </si>
@@ -109,6 +109,21 @@
     <t>RUBEN IVÁN MORALES GOMEZ</t>
   </si>
   <si>
+    <t>ESBEYDI BONILLA MÉNDEZ</t>
+  </si>
+  <si>
+    <t>ABRAHAM QUIROZ TORRES</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO PORRAZ COBA</t>
+  </si>
+  <si>
+    <t>ALFREDO CARDENAS LEAL</t>
+  </si>
+  <si>
+    <t>ANTONIA LEAL MORALES</t>
+  </si>
+  <si>
     <t>daniel.ceballos.rendon@ejemplo.com</t>
   </si>
   <si>
@@ -182,6 +197,21 @@
   </si>
   <si>
     <t>ruben.iván.morales.gomez@ejemplo.com</t>
+  </si>
+  <si>
+    <t>esbeydi.bonilla.méndez@ejemplo.com</t>
+  </si>
+  <si>
+    <t>abraham.quiroz.torres@ejemplo.com</t>
+  </si>
+  <si>
+    <t>carlos.alberto.porraz.coba@ejemplo.com</t>
+  </si>
+  <si>
+    <t>alfredo.cardenas.leal@ejemplo.com</t>
+  </si>
+  <si>
+    <t>antonia.leal.morales@ejemplo.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,19 +603,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>949.796142578125</v>
+        <v>953.0826416015625</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1092</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -596,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>952.062255859375</v>
+        <v>954.545654296875</v>
       </c>
       <c r="F3">
         <v>-4.527081484455945</v>
       </c>
       <c r="G3">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -619,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>951.7838745117188</v>
+        <v>955.1535034179688</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -642,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>951.5054931640625</v>
+        <v>955.7512817382812</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -665,19 +695,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>951.4591674804688</v>
+        <v>955.8401489257812</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -688,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>951.3663940429688</v>
+        <v>956.0177612304688</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -711,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>951.320068359375</v>
+        <v>956.1066284179688</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1094</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -734,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>951.8767700195312</v>
+        <v>954.9508666992188</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -757,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>949.3494873046875</v>
+        <v>952.6170043945312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1092</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -780,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>951.3836669921875</v>
+        <v>954.5866088867188</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -803,19 +833,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>955.6729125976562</v>
+        <v>957.1004028320312</v>
       </c>
       <c r="F12">
         <v>-4.527081484455945</v>
       </c>
       <c r="G12">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -826,19 +856,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13">
-        <v>955.54638671875</v>
+        <v>957.3684692382812</v>
       </c>
       <c r="F13">
         <v>-4.527081484455945</v>
       </c>
       <c r="G13">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -849,19 +879,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>955.7149047851562</v>
+        <v>957.010986328125</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -872,19 +902,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>958.3882446289062</v>
+        <v>958.3348999023438</v>
       </c>
       <c r="F15">
         <v>4.527081484455945</v>
       </c>
       <c r="G15">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -895,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>958.656494140625</v>
+        <v>960.5885620117188</v>
       </c>
       <c r="F16">
         <v>4.527081484455945</v>
       </c>
       <c r="G16">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -918,19 +948,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>958.610107421875</v>
+        <v>960.6779174804688</v>
       </c>
       <c r="F17">
         <v>4.527081484455945</v>
       </c>
       <c r="G17">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -941,19 +971,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>957.66650390625</v>
+        <v>958.3710327148438</v>
       </c>
       <c r="F18">
         <v>4.527081484455945</v>
       </c>
       <c r="G18">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -964,19 +994,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>954.7083129882812</v>
+        <v>956.7495727539062</v>
       </c>
       <c r="F19">
         <v>4.527081484455945</v>
       </c>
       <c r="G19">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -987,19 +1017,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>954.9612426757812</v>
+        <v>956.2155151367188</v>
       </c>
       <c r="F20">
         <v>4.527081484455945</v>
       </c>
       <c r="G20">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1010,19 +1040,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>948.5731811523438</v>
+        <v>951.6639404296875</v>
       </c>
       <c r="F21">
         <v>-4.527081484455945</v>
       </c>
       <c r="G21">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1033,19 +1063,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>948.4918823242188</v>
+        <v>951.7736206054688</v>
       </c>
       <c r="F22">
         <v>-4.527081484455945</v>
       </c>
       <c r="G22">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1056,19 +1086,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
-        <v>950.4796752929688</v>
+        <v>953.8445434570312</v>
       </c>
       <c r="F23">
         <v>-4.527081484455945</v>
       </c>
       <c r="G23">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1079,19 +1109,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>950.8043823242188</v>
+        <v>953.13525390625</v>
       </c>
       <c r="F24">
         <v>-4.527081484455945</v>
       </c>
       <c r="G24">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1102,19 +1132,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
-        <v>948.3991088867188</v>
+        <v>951.9763793945312</v>
       </c>
       <c r="F25">
         <v>-4.527081484455945</v>
       </c>
       <c r="G25">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1125,19 +1155,134 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>957.8665161132812</v>
+        <v>963.6571044921875</v>
       </c>
       <c r="F26">
         <v>-4.527081484455945</v>
       </c>
       <c r="G26">
-        <v>1058</v>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>962.3550415039062</v>
+      </c>
+      <c r="F27">
+        <v>4.527081484455945</v>
+      </c>
+      <c r="G27">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>959.8202514648438</v>
+      </c>
+      <c r="F28">
+        <v>4.527081484455945</v>
+      </c>
+      <c r="G28">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>959.8202514648438</v>
+      </c>
+      <c r="F29">
+        <v>4.527081484455945</v>
+      </c>
+      <c r="G29">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>962.3977661132812</v>
+      </c>
+      <c r="F30">
+        <v>4.527081484455945</v>
+      </c>
+      <c r="G30">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>962.4871826171875</v>
+      </c>
+      <c r="F31">
+        <v>4.527081484455945</v>
+      </c>
+      <c r="G31">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
